--- a/MarkdownGen.xlsx
+++ b/MarkdownGen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tfs\tutor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DeepThought\source\repos\tutor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF118C0-6F1D-4F12-BC13-C33B2C7F170C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{773DEE90-0807-4501-982D-E05716E42BC6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="15840" xr2:uid="{810260F8-E46C-4EC4-AAF7-DF3B9A23AA06}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{810260F8-E46C-4EC4-AAF7-DF3B9A23AA06}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="116">
   <si>
     <t>Google-Fu</t>
   </si>
@@ -271,16 +271,135 @@
   </si>
   <si>
     <t>SCSS</t>
+  </si>
+  <si>
+    <t>https://english.stackexchange.com/questions/19967/what-does-google-fu-mean</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Soft_skills</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Document_Object_Model</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Application_framework</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Client%E2%80%93server_model</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Document-oriented_database</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Representational_state_transfer</t>
+  </si>
+  <si>
+    <t>https://simple.wikipedia.org/wiki/Binary_number</t>
+  </si>
+  <si>
+    <t>https://simple.wikipedia.org/wiki/Text_file</t>
+  </si>
+  <si>
+    <t>https://simple.wikipedia.org/wiki/Object-oriented_programming</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Integrated_development_environment</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Web_server</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Notepad%2B%2B</t>
+  </si>
+  <si>
+    <t>https://code.visualstudio.com/docs/introvideos/extend</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Quality_assurance</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/JavaScript</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/C_Sharp_(programming_language)</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Python_(programming_language)</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Programming_languages_used_in_most_popular_websites</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Continuous_integration</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Continuous_delivery</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Microsoft_Excel</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Code_review</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Data_type</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Log_file</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Command-line_interface</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Software_license</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Progressive_web_application</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Single-page_application</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Responsive_web_design</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Git</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/ISO_8601</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Dependency_injection</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Character_encoding</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Parallel_computing</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Web_browser</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Control_flow#Loops</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -303,13 +422,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -624,22 +746,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C71F4228-58E9-492A-98F8-02E8A94E783D}">
   <dimension ref="A1:J66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I66" sqref="I66"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J55" sqref="J55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
-    <col min="2" max="2" width="36.7109375" customWidth="1"/>
-    <col min="4" max="4" width="57.42578125" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" customWidth="1"/>
-    <col min="9" max="9" width="26.7109375" customWidth="1"/>
-    <col min="10" max="10" width="64.140625" customWidth="1"/>
+    <col min="1" max="1" width="24.7265625" customWidth="1"/>
+    <col min="2" max="2" width="36.7265625" customWidth="1"/>
+    <col min="4" max="4" width="57.453125" customWidth="1"/>
+    <col min="5" max="5" width="20.54296875" customWidth="1"/>
+    <col min="6" max="6" width="25.54296875" customWidth="1"/>
+    <col min="9" max="9" width="26.7265625" customWidth="1"/>
+    <col min="10" max="10" width="64.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>65</v>
       </c>
@@ -671,288 +793,298 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>66</v>
       </c>
       <c r="I2" t="str">
         <f>B3</f>
         <v>Math</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>66</v>
       </c>
       <c r="H3" t="str">
         <f>A2</f>
         <v>Google-Fu</v>
       </c>
       <c r="I3" t="str">
-        <f t="shared" ref="I3:I66" si="0">B4</f>
+        <f t="shared" ref="I3:I65" si="0">B4</f>
         <v>Soft-Skills</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J66" si="1">"https://en.wikipedia.org/wiki/"&amp;B3</f>
+        <v>https://en.wikipedia.org/wiki/Math</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>34</v>
       </c>
       <c r="B4" t="s">
         <v>34</v>
       </c>
-      <c r="E4" t="s">
-        <v>66</v>
-      </c>
       <c r="H4" t="str">
-        <f t="shared" ref="H4:H66" si="1">A3</f>
+        <f t="shared" ref="H4:H66" si="2">A3</f>
         <v>Math</v>
       </c>
       <c r="I4" t="str">
         <f t="shared" si="0"/>
         <v>Markdown</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="E5" t="s">
-        <v>66</v>
-      </c>
       <c r="H5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Soft-Skills</v>
       </c>
       <c r="I5" t="str">
         <f t="shared" si="0"/>
         <v>Xml</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J5" t="str">
+        <f t="shared" si="1"/>
+        <v>https://en.wikipedia.org/wiki/Markdown</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
       </c>
-      <c r="E6" t="s">
-        <v>66</v>
-      </c>
       <c r="H6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Markdown</v>
       </c>
       <c r="I6" t="str">
         <f t="shared" si="0"/>
         <v>Json</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J6" t="str">
+        <f t="shared" si="1"/>
+        <v>https://en.wikipedia.org/wiki/Xml</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="E7" t="s">
-        <v>66</v>
-      </c>
       <c r="H7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Xml</v>
       </c>
       <c r="I7" t="str">
         <f t="shared" si="0"/>
         <v>Ascii</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J7" t="str">
+        <f t="shared" si="1"/>
+        <v>https://en.wikipedia.org/wiki/Json</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="E8" t="s">
-        <v>66</v>
-      </c>
       <c r="H8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Json</v>
       </c>
       <c r="I8" t="str">
         <f t="shared" si="0"/>
         <v>Html</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J8" t="str">
+        <f>"https://en.wikipedia.org/wiki/"&amp;B8</f>
+        <v>https://en.wikipedia.org/wiki/Ascii</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>6</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="E9" t="s">
-        <v>66</v>
-      </c>
       <c r="H9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Ascii</v>
       </c>
       <c r="I9" t="str">
         <f t="shared" si="0"/>
         <v>Css</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J9" t="str">
+        <f t="shared" si="1"/>
+        <v>https://en.wikipedia.org/wiki/Html</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>7</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
       </c>
-      <c r="E10" t="s">
-        <v>66</v>
-      </c>
       <c r="H10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Html</v>
       </c>
       <c r="I10" t="str">
         <f t="shared" si="0"/>
         <v>Javascript</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J10" t="str">
+        <f t="shared" si="1"/>
+        <v>https://en.wikipedia.org/wiki/Css</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>8</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
       </c>
-      <c r="E11" t="s">
-        <v>66</v>
-      </c>
       <c r="H11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Css</v>
       </c>
       <c r="I11" t="str">
         <f t="shared" si="0"/>
         <v>TypeScript</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J11" t="str">
+        <f t="shared" si="1"/>
+        <v>https://en.wikipedia.org/wiki/Javascript</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>9</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
       </c>
-      <c r="E12" t="s">
-        <v>66</v>
-      </c>
       <c r="H12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Javascript</v>
       </c>
       <c r="I12" t="str">
         <f t="shared" si="0"/>
         <v>DOM</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J12" t="str">
+        <f t="shared" si="1"/>
+        <v>https://en.wikipedia.org/wiki/TypeScript</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>10</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
       </c>
-      <c r="E13" t="s">
-        <v>66</v>
-      </c>
       <c r="H13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>TypeScript</v>
       </c>
       <c r="I13" t="str">
         <f t="shared" si="0"/>
         <v>Http</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J13" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>11</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
       </c>
-      <c r="E14" t="s">
-        <v>66</v>
-      </c>
       <c r="H14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>DOM</v>
       </c>
       <c r="I14" t="str">
         <f t="shared" si="0"/>
         <v>Frameworks</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J14" t="str">
+        <f t="shared" si="1"/>
+        <v>https://en.wikipedia.org/wiki/Http</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>12</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
       </c>
-      <c r="E15" t="s">
-        <v>66</v>
-      </c>
       <c r="H15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Http</v>
       </c>
       <c r="I15" t="str">
         <f t="shared" si="0"/>
         <v>Client-Server-Model</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
       </c>
-      <c r="E16" t="s">
-        <v>66</v>
-      </c>
       <c r="H16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Frameworks</v>
       </c>
       <c r="I16" t="str">
         <f t="shared" si="0"/>
         <v>Scss</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J16" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -965,19 +1097,20 @@
       <c r="D17" t="s">
         <v>77</v>
       </c>
-      <c r="E17" t="s">
-        <v>66</v>
-      </c>
       <c r="H17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Client-Server-Model</v>
       </c>
       <c r="I17" t="str">
         <f t="shared" si="0"/>
         <v>ORM</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J17" t="str">
+        <f>"https://en.wikipedia.org/wiki/"&amp;B17</f>
+        <v>https://en.wikipedia.org/wiki/Scss</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -990,915 +1123,927 @@
       <c r="D18" t="s">
         <v>75</v>
       </c>
-      <c r="E18" t="s">
-        <v>66</v>
-      </c>
       <c r="H18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Scss</v>
       </c>
       <c r="I18" t="str">
         <f t="shared" si="0"/>
         <v>Caching</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>16</v>
       </c>
       <c r="B19" t="s">
         <v>16</v>
       </c>
-      <c r="E19" t="s">
-        <v>66</v>
-      </c>
       <c r="H19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>ORM</v>
       </c>
       <c r="I19" t="str">
         <f t="shared" si="0"/>
         <v>NoSql</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J19" t="str">
+        <f t="shared" si="1"/>
+        <v>https://en.wikipedia.org/wiki/Caching</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>17</v>
       </c>
       <c r="B20" t="s">
         <v>17</v>
       </c>
-      <c r="E20" t="s">
-        <v>66</v>
-      </c>
       <c r="H20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Caching</v>
       </c>
       <c r="I20" t="str">
         <f t="shared" si="0"/>
         <v>Document-Store</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J20" t="str">
+        <f t="shared" si="1"/>
+        <v>https://en.wikipedia.org/wiki/NoSql</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>18</v>
       </c>
       <c r="B21" t="s">
         <v>18</v>
       </c>
-      <c r="E21" t="s">
-        <v>66</v>
-      </c>
       <c r="H21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NoSql</v>
       </c>
       <c r="I21" t="str">
         <f t="shared" si="0"/>
         <v>Restful-APIs</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J21" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>19</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
       </c>
-      <c r="E22" t="s">
-        <v>66</v>
-      </c>
       <c r="H22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Document-Store</v>
       </c>
       <c r="I22" t="str">
         <f t="shared" si="0"/>
         <v>Binary-Files</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J22" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>20</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
       </c>
-      <c r="E23" t="s">
-        <v>66</v>
-      </c>
       <c r="H23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Restful-APIs</v>
       </c>
       <c r="I23" t="str">
         <f t="shared" si="0"/>
         <v>Text-Files</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J23" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>21</v>
       </c>
       <c r="B24" t="s">
         <v>21</v>
       </c>
-      <c r="E24" t="s">
-        <v>66</v>
-      </c>
       <c r="H24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Binary-Files</v>
       </c>
       <c r="I24" t="str">
         <f t="shared" si="0"/>
         <v>Object-Oriented-Programming</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J24" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>22</v>
       </c>
       <c r="B25" t="s">
         <v>22</v>
       </c>
-      <c r="E25" t="s">
-        <v>66</v>
-      </c>
       <c r="H25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Text-Files</v>
       </c>
       <c r="I25" t="str">
         <f t="shared" si="0"/>
         <v>Integrated-Development-Environment</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J25" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>23</v>
       </c>
       <c r="B26" t="s">
         <v>23</v>
       </c>
-      <c r="E26" t="s">
-        <v>66</v>
-      </c>
       <c r="H26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Object-Oriented-Programming</v>
       </c>
       <c r="I26" t="str">
         <f t="shared" si="0"/>
         <v>Networks</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J26" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>24</v>
       </c>
-      <c r="E27" t="s">
-        <v>66</v>
-      </c>
       <c r="H27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Integrated-Development-Environment</v>
       </c>
       <c r="I27" t="str">
         <f t="shared" si="0"/>
         <v>Web-Servers</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J27" t="str">
+        <f t="shared" si="1"/>
+        <v>https://en.wikipedia.org/wiki/Networks</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>25</v>
       </c>
       <c r="B28" t="s">
         <v>25</v>
       </c>
-      <c r="E28" t="s">
-        <v>66</v>
-      </c>
       <c r="H28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Networks</v>
       </c>
       <c r="I28" t="str">
         <f t="shared" si="0"/>
         <v>Notepad-Plus-Plus</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J28" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>26</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
       </c>
-      <c r="E29" t="s">
-        <v>66</v>
-      </c>
       <c r="H29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Web-Servers</v>
       </c>
       <c r="I29" t="str">
         <f t="shared" si="0"/>
         <v>Extensions</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J29" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>27</v>
       </c>
       <c r="B30" t="s">
         <v>27</v>
       </c>
-      <c r="E30" t="s">
-        <v>66</v>
-      </c>
       <c r="H30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Notepad-Plus-Plus</v>
       </c>
       <c r="I30" t="str">
         <f t="shared" si="0"/>
         <v>Quality-Assurance</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J30" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>28</v>
       </c>
       <c r="B31" t="s">
         <v>28</v>
       </c>
-      <c r="E31" t="s">
-        <v>66</v>
-      </c>
       <c r="H31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Extensions</v>
       </c>
       <c r="I31" t="str">
         <f t="shared" si="0"/>
         <v>Language-Javascript</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J31" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>29</v>
       </c>
       <c r="B32" t="s">
         <v>29</v>
       </c>
-      <c r="E32" t="s">
-        <v>66</v>
-      </c>
       <c r="H32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Quality-Assurance</v>
       </c>
       <c r="I32" t="str">
         <f t="shared" si="0"/>
         <v>Language-C-Sharp</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>30</v>
       </c>
       <c r="B33" t="s">
         <v>30</v>
       </c>
-      <c r="E33" t="s">
-        <v>66</v>
-      </c>
       <c r="H33" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Language-Javascript</v>
       </c>
       <c r="I33" t="str">
         <f t="shared" si="0"/>
         <v>Language-Python</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J33" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>31</v>
       </c>
       <c r="B34" t="s">
         <v>31</v>
       </c>
-      <c r="E34" t="s">
-        <v>66</v>
-      </c>
       <c r="H34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Language-C-Sharp</v>
       </c>
       <c r="I34" t="str">
         <f t="shared" si="0"/>
         <v>Language-Other</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J34" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>32</v>
       </c>
       <c r="B35" t="s">
         <v>32</v>
       </c>
-      <c r="E35" t="s">
-        <v>66</v>
-      </c>
       <c r="H35" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Language-Python</v>
       </c>
       <c r="I35" t="str">
         <f t="shared" si="0"/>
         <v>WebAssembly</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J35" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>33</v>
       </c>
       <c r="B36" t="s">
         <v>33</v>
       </c>
-      <c r="E36" t="s">
-        <v>66</v>
-      </c>
       <c r="H36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Language-Other</v>
       </c>
       <c r="I36" t="str">
         <f t="shared" si="0"/>
         <v>Continuous-Integration</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J36" t="str">
+        <f>"https://en.wikipedia.org/wiki/"&amp;B36</f>
+        <v>https://en.wikipedia.org/wiki/WebAssembly</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>36</v>
       </c>
-      <c r="E37" t="s">
-        <v>66</v>
-      </c>
       <c r="H37" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>WebAssembly</v>
       </c>
       <c r="I37" t="str">
         <f t="shared" si="0"/>
         <v>Continuous-Delivery</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J37" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>35</v>
       </c>
       <c r="B38" t="s">
         <v>35</v>
       </c>
-      <c r="E38" t="s">
-        <v>66</v>
-      </c>
       <c r="H38" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Continuous-Integration</v>
       </c>
       <c r="I38" t="str">
         <f t="shared" si="0"/>
         <v>Excel</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J38" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>37</v>
       </c>
       <c r="B39" t="s">
         <v>37</v>
       </c>
-      <c r="E39" t="s">
-        <v>66</v>
-      </c>
       <c r="H39" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Continuous-Delivery</v>
       </c>
       <c r="I39" t="str">
         <f t="shared" si="0"/>
         <v>Code-Review</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J39" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>38</v>
       </c>
       <c r="B40" t="s">
         <v>38</v>
       </c>
-      <c r="E40" t="s">
-        <v>66</v>
-      </c>
       <c r="H40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Excel</v>
       </c>
       <c r="I40" t="str">
         <f t="shared" si="0"/>
         <v>OWASP</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J40" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>39</v>
       </c>
       <c r="B41" t="s">
         <v>39</v>
       </c>
-      <c r="E41" t="s">
-        <v>66</v>
-      </c>
       <c r="H41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Code-Review</v>
       </c>
       <c r="I41" t="str">
         <f t="shared" si="0"/>
         <v>DataTypes</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J41" t="str">
+        <f t="shared" si="1"/>
+        <v>https://en.wikipedia.org/wiki/OWASP</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>40</v>
       </c>
       <c r="B42" t="s">
         <v>40</v>
       </c>
-      <c r="E42" t="s">
-        <v>66</v>
-      </c>
       <c r="H42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>OWASP</v>
       </c>
       <c r="I42" t="str">
         <f t="shared" si="0"/>
         <v>Logs</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J42" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>41</v>
       </c>
       <c r="B43" t="s">
         <v>41</v>
       </c>
-      <c r="E43" t="s">
-        <v>66</v>
-      </c>
       <c r="H43" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>DataTypes</v>
       </c>
       <c r="I43" t="str">
         <f t="shared" si="0"/>
         <v>Command-Line</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J43" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>42</v>
       </c>
       <c r="B44" t="s">
         <v>42</v>
       </c>
-      <c r="E44" t="s">
-        <v>66</v>
-      </c>
       <c r="H44" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Logs</v>
       </c>
       <c r="I44" t="str">
         <f t="shared" si="0"/>
         <v>Software-License</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J44" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>43</v>
       </c>
       <c r="B45" t="s">
         <v>43</v>
       </c>
-      <c r="E45" t="s">
-        <v>66</v>
-      </c>
       <c r="H45" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Command-Line</v>
       </c>
       <c r="I45" t="str">
         <f t="shared" si="0"/>
         <v>Progressive-Web-Apps</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J45" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>44</v>
       </c>
       <c r="B46" t="s">
         <v>44</v>
       </c>
-      <c r="E46" t="s">
-        <v>66</v>
-      </c>
       <c r="H46" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Software-License</v>
       </c>
       <c r="I46" t="str">
         <f t="shared" si="0"/>
         <v>Single-Page-Apps</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J46" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>45</v>
       </c>
       <c r="B47" t="s">
         <v>45</v>
       </c>
-      <c r="E47" t="s">
-        <v>66</v>
-      </c>
       <c r="H47" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Progressive-Web-Apps</v>
       </c>
       <c r="I47" t="str">
         <f t="shared" si="0"/>
         <v>Responsive</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J47" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>46</v>
       </c>
       <c r="B48" t="s">
         <v>46</v>
       </c>
-      <c r="E48" t="s">
-        <v>66</v>
-      </c>
       <c r="H48" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Single-Page-Apps</v>
       </c>
       <c r="I48" t="str">
         <f t="shared" si="0"/>
         <v>Git</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J48" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>47</v>
       </c>
       <c r="B49" t="s">
         <v>47</v>
       </c>
-      <c r="E49" t="s">
-        <v>66</v>
-      </c>
       <c r="H49" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Responsive</v>
       </c>
       <c r="I49" t="str">
         <f t="shared" si="0"/>
         <v>DateTime</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J49" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>48</v>
       </c>
       <c r="B50" t="s">
         <v>48</v>
       </c>
-      <c r="E50" t="s">
-        <v>66</v>
-      </c>
       <c r="H50" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Git</v>
       </c>
       <c r="I50" t="str">
         <f t="shared" si="0"/>
         <v>Dependency-Injection</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J50" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>49</v>
       </c>
       <c r="B51" t="s">
         <v>49</v>
       </c>
-      <c r="E51" t="s">
-        <v>66</v>
-      </c>
       <c r="H51" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>DateTime</v>
       </c>
       <c r="I51" t="str">
         <f t="shared" si="0"/>
         <v>Character-Encodings</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J51" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>50</v>
       </c>
       <c r="B52" t="s">
         <v>50</v>
       </c>
-      <c r="E52" t="s">
-        <v>66</v>
-      </c>
       <c r="H52" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Dependency-Injection</v>
       </c>
       <c r="I52" t="str">
         <f t="shared" si="0"/>
         <v>Parallelism</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J52" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>51</v>
       </c>
       <c r="B53" t="s">
         <v>51</v>
       </c>
-      <c r="E53" t="s">
-        <v>66</v>
-      </c>
       <c r="H53" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Character-Encodings</v>
       </c>
       <c r="I53" t="str">
         <f t="shared" si="0"/>
         <v>HttpClient</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J53" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>52</v>
       </c>
       <c r="B54" t="s">
         <v>52</v>
       </c>
-      <c r="E54" t="s">
-        <v>66</v>
-      </c>
       <c r="H54" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Parallelism</v>
       </c>
       <c r="I54" t="str">
         <f t="shared" si="0"/>
         <v>Loops</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J54" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>53</v>
       </c>
       <c r="B55" t="s">
         <v>53</v>
       </c>
-      <c r="E55" t="s">
-        <v>66</v>
-      </c>
       <c r="H55" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>HttpClient</v>
       </c>
       <c r="I55" t="str">
         <f t="shared" si="0"/>
         <v>Unit-Testing</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J55" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>54</v>
       </c>
       <c r="B56" t="s">
         <v>54</v>
       </c>
-      <c r="E56" t="s">
-        <v>66</v>
-      </c>
       <c r="H56" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Loops</v>
       </c>
       <c r="I56" t="str">
         <f t="shared" si="0"/>
         <v>Frontend-Frameworks</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J56" t="str">
+        <f t="shared" si="1"/>
+        <v>https://en.wikipedia.org/wiki/Unit-Testing</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>55</v>
       </c>
       <c r="B57" t="s">
         <v>55</v>
       </c>
-      <c r="E57" t="s">
-        <v>66</v>
-      </c>
       <c r="H57" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Unit-Testing</v>
       </c>
       <c r="I57" t="str">
         <f t="shared" si="0"/>
         <v>Design-Patterns</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J57" t="str">
+        <f t="shared" si="1"/>
+        <v>https://en.wikipedia.org/wiki/Frontend-Frameworks</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>56</v>
       </c>
       <c r="B58" t="s">
         <v>56</v>
       </c>
-      <c r="E58" t="s">
-        <v>66</v>
-      </c>
       <c r="H58" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Frontend-Frameworks</v>
       </c>
       <c r="I58" t="str">
         <f t="shared" si="0"/>
         <v>SOLID</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J58" t="str">
+        <f t="shared" si="1"/>
+        <v>https://en.wikipedia.org/wiki/Design-Patterns</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>57</v>
       </c>
       <c r="B59" t="s">
         <v>57</v>
       </c>
-      <c r="E59" t="s">
-        <v>66</v>
-      </c>
       <c r="H59" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Design-Patterns</v>
       </c>
       <c r="I59" t="str">
         <f t="shared" si="0"/>
         <v>Docker-Kubernetes</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J59" t="str">
+        <f t="shared" si="1"/>
+        <v>https://en.wikipedia.org/wiki/SOLID</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>72</v>
       </c>
       <c r="B60" t="s">
         <v>72</v>
       </c>
-      <c r="E60" t="s">
-        <v>66</v>
-      </c>
       <c r="H60" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>SOLID</v>
       </c>
       <c r="I60" t="str">
         <f t="shared" si="0"/>
         <v>Machine-Learning</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J60" t="str">
+        <f t="shared" si="1"/>
+        <v>https://en.wikipedia.org/wiki/Docker-Kubernetes</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>58</v>
       </c>
       <c r="B61" t="s">
         <v>58</v>
       </c>
-      <c r="E61" t="s">
-        <v>66</v>
-      </c>
       <c r="H61" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Docker-Kubernetes</v>
       </c>
       <c r="I61" t="str">
         <f t="shared" si="0"/>
         <v>Mobile</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J61" t="str">
+        <f t="shared" si="1"/>
+        <v>https://en.wikipedia.org/wiki/Machine-Learning</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>59</v>
       </c>
       <c r="B62" t="s">
         <v>59</v>
       </c>
-      <c r="E62" t="s">
-        <v>66</v>
-      </c>
       <c r="H62" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Machine-Learning</v>
       </c>
       <c r="I62" t="str">
         <f t="shared" si="0"/>
         <v>Authentication+Authorization</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J62" t="str">
+        <f t="shared" si="1"/>
+        <v>https://en.wikipedia.org/wiki/Mobile</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>60</v>
       </c>
       <c r="B63" t="s">
         <v>60</v>
       </c>
-      <c r="E63" t="s">
-        <v>66</v>
-      </c>
       <c r="H63" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Mobile</v>
       </c>
       <c r="I63" t="str">
         <f t="shared" si="0"/>
         <v>Input-Output</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J63" t="str">
+        <f t="shared" si="1"/>
+        <v>https://en.wikipedia.org/wiki/Authentication+Authorization</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>61</v>
       </c>
       <c r="B64" t="s">
         <v>61</v>
       </c>
-      <c r="E64" t="s">
-        <v>66</v>
-      </c>
       <c r="H64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Authentication+Authorization</v>
       </c>
       <c r="I64" t="str">
         <f t="shared" si="0"/>
         <v>Database</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J64" t="str">
+        <f t="shared" si="1"/>
+        <v>https://en.wikipedia.org/wiki/Input-Output</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>71</v>
       </c>
       <c r="B65" t="s">
         <v>71</v>
       </c>
-      <c r="E65" t="s">
-        <v>66</v>
-      </c>
       <c r="H65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Input-Output</v>
       </c>
       <c r="I65" t="str">
         <f t="shared" si="0"/>
         <v>Libraries</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J65" t="str">
+        <f t="shared" si="1"/>
+        <v>https://en.wikipedia.org/wiki/Database</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>13</v>
       </c>
@@ -1906,12 +2051,48 @@
         <v>13</v>
       </c>
       <c r="H66" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Database</v>
       </c>
+      <c r="J66" t="str">
+        <f t="shared" si="1"/>
+        <v>https://en.wikipedia.org/wiki/Libraries</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J13" r:id="rId1" xr:uid="{362EB5D5-EB50-4A74-9CE5-EC60A0AB40C1}"/>
+    <hyperlink ref="J16" r:id="rId2" xr:uid="{1486D449-0376-454B-996B-FCE78BB65207}"/>
+    <hyperlink ref="J18" r:id="rId3" xr:uid="{03D723BB-0320-4664-8C1B-7F6F8ED006B7}"/>
+    <hyperlink ref="J21" r:id="rId4" xr:uid="{29FFA44D-D8AE-4CE1-8F84-C2F4C46DF44A}"/>
+    <hyperlink ref="J22" r:id="rId5" xr:uid="{723DA7F3-202A-4645-BF8B-3A1E39F93370}"/>
+    <hyperlink ref="J23" r:id="rId6" xr:uid="{17C39995-A5EA-462A-876B-EFD613664C4B}"/>
+    <hyperlink ref="J24" r:id="rId7" xr:uid="{BDDB919B-8D95-417C-8671-9D6838E01738}"/>
+    <hyperlink ref="J25" r:id="rId8" xr:uid="{CAF564FC-0EC7-4246-B5ED-F270D9E5B76B}"/>
+    <hyperlink ref="J26" r:id="rId9" xr:uid="{9B709729-77ED-431F-8A1A-64B1A83669E7}"/>
+    <hyperlink ref="J28" r:id="rId10" xr:uid="{A381C4DF-2886-43F6-A4BB-8E66389C5854}"/>
+    <hyperlink ref="J29" r:id="rId11" xr:uid="{FF26ABCE-BF37-457C-AC4C-A3328152C983}"/>
+    <hyperlink ref="J30" r:id="rId12" xr:uid="{9CDB4F1F-40DE-4FCD-9732-8287520AFDB5}"/>
+    <hyperlink ref="J31" r:id="rId13" xr:uid="{D55AAD4C-213B-4D89-B278-97037E24796D}"/>
+    <hyperlink ref="J32" r:id="rId14" xr:uid="{E714F756-F94F-459D-8B20-52E2167727B0}"/>
+    <hyperlink ref="J33" r:id="rId15" xr:uid="{7C6864EC-337C-4968-8589-3F39F9B6F80D}"/>
+    <hyperlink ref="J34" r:id="rId16" xr:uid="{3D3C1D87-2067-4C61-ABD8-9D105EAE9895}"/>
+    <hyperlink ref="J35" r:id="rId17" xr:uid="{A07594D4-745D-4280-9CED-74C1E20A97FD}"/>
+    <hyperlink ref="J37" r:id="rId18" xr:uid="{FC43B3BD-768A-48C3-AEE5-09CB057DB24E}"/>
+    <hyperlink ref="J38" r:id="rId19" xr:uid="{70B18534-B011-4820-827A-6E9673786CB7}"/>
+    <hyperlink ref="J39" r:id="rId20" xr:uid="{B44454AA-DB4A-4586-AC36-BEFC48A4C8E5}"/>
+    <hyperlink ref="J40" r:id="rId21" xr:uid="{5AD60D92-C601-421E-AE34-290DEDEA00F4}"/>
+    <hyperlink ref="J42" r:id="rId22" xr:uid="{8A646801-485B-4F8E-A545-555764EA07C8}"/>
+    <hyperlink ref="J43" r:id="rId23" xr:uid="{DEBD4FF5-3171-4817-815D-43DBCF73A8B9}"/>
+    <hyperlink ref="J44" r:id="rId24" xr:uid="{FF74FCE5-B1EB-4BBC-B57B-7942C6C46BA0}"/>
+    <hyperlink ref="J45" r:id="rId25" xr:uid="{83A354DA-E506-47C4-9E2B-25A12419640B}"/>
+    <hyperlink ref="J46" r:id="rId26" xr:uid="{5EB69669-6692-4B2A-B349-9BE877F8DC58}"/>
+    <hyperlink ref="J47" r:id="rId27" xr:uid="{7ADBB821-9687-4D37-9883-1A8633FFE4AA}"/>
+    <hyperlink ref="J48" r:id="rId28" xr:uid="{B977A5BD-B498-40E4-A6D0-4E6DB454D03B}"/>
+    <hyperlink ref="J49" r:id="rId29" xr:uid="{0EE5772F-A3BB-41C3-90CF-DFFF1917D790}"/>
+    <hyperlink ref="J50" r:id="rId30" xr:uid="{F65B3C4D-D7D9-466B-9E08-E27BF704E41D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId31"/>
 </worksheet>
 </file>